--- a/mk2105 连续加工统计表.xlsx
+++ b/mk2105 连续加工统计表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marco Nie\iCloudDrive\Documents\Work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FE603E4-AB55-4EF6-BEE0-690C0DEB5818}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A863E1B5-BE55-48DA-9D48-F81262C55E22}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" tabRatio="631" firstSheet="3" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" tabRatio="631" firstSheet="5" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="20-06-20" sheetId="1" r:id="rId1"/>
@@ -24,6 +24,7 @@
     <sheet name="20-08-25" sheetId="10" r:id="rId9"/>
     <sheet name="20-08-26" sheetId="11" r:id="rId10"/>
     <sheet name="20-08-27" sheetId="12" r:id="rId11"/>
+    <sheet name="20-09-02" sheetId="13" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="188">
   <si>
     <t>上</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -696,12 +697,104 @@
     <t>砂轮直径在24.2到20之间的线速度在36-32.5线性变化</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>周末停机两天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周一生成用户新工件4533 20件，更换了顶尖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>早上更换回顶尖，温机30分钟，更换新砂轮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主轴：26度 液压：30度  压力：4.8  冷却水：24度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>废工件加工6件热机 尺寸加0.18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>磨2次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>送检，温机1.5小时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>磨2次 加3u</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>减0.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>减1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加0.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>直径23.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>直径22.8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加工4件用时516秒 平均129秒一件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下表统计20件以后数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>直径22.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>减0.5u</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>直径21.8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始抽检50件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>直径21.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选105-154</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -744,6 +837,20 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -771,7 +878,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -781,6 +888,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -11914,6 +12023,3412 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart28.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'20-09-02'!$B$8:$B$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-674D-4F9E-A0B8-3AB52AA4395E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'20-09-02'!$C$8:$C$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-674D-4F9E-A0B8-3AB52AA4395E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'20-09-02'!$D$8:$D$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-674D-4F9E-A0B8-3AB52AA4395E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1868633088"/>
+        <c:axId val="1865775744"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1868633088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1865775744"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1865775744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="2"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1868633088"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart29.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="138"/>
+              <c:pt idx="0">
+                <c:v>21</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>22</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>23</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>24</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>25</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>26</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>27</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>28</c:v>
+              </c:pt>
+              <c:pt idx="8">
+                <c:v>29</c:v>
+              </c:pt>
+              <c:pt idx="9">
+                <c:v>30</c:v>
+              </c:pt>
+              <c:pt idx="10">
+                <c:v>31</c:v>
+              </c:pt>
+              <c:pt idx="11">
+                <c:v>32</c:v>
+              </c:pt>
+              <c:pt idx="12">
+                <c:v>33</c:v>
+              </c:pt>
+              <c:pt idx="13">
+                <c:v>34</c:v>
+              </c:pt>
+              <c:pt idx="14">
+                <c:v>35</c:v>
+              </c:pt>
+              <c:pt idx="15">
+                <c:v>36</c:v>
+              </c:pt>
+              <c:pt idx="16">
+                <c:v>37</c:v>
+              </c:pt>
+              <c:pt idx="17">
+                <c:v>38</c:v>
+              </c:pt>
+              <c:pt idx="18">
+                <c:v>39</c:v>
+              </c:pt>
+              <c:pt idx="19">
+                <c:v>40</c:v>
+              </c:pt>
+              <c:pt idx="20">
+                <c:v>41</c:v>
+              </c:pt>
+              <c:pt idx="21">
+                <c:v>42</c:v>
+              </c:pt>
+              <c:pt idx="22">
+                <c:v>43</c:v>
+              </c:pt>
+              <c:pt idx="23">
+                <c:v>44</c:v>
+              </c:pt>
+              <c:pt idx="24">
+                <c:v>45</c:v>
+              </c:pt>
+              <c:pt idx="25">
+                <c:v>46</c:v>
+              </c:pt>
+              <c:pt idx="26">
+                <c:v>47</c:v>
+              </c:pt>
+              <c:pt idx="27">
+                <c:v>48</c:v>
+              </c:pt>
+              <c:pt idx="28">
+                <c:v>49</c:v>
+              </c:pt>
+              <c:pt idx="29">
+                <c:v>50</c:v>
+              </c:pt>
+              <c:pt idx="30">
+                <c:v>51</c:v>
+              </c:pt>
+              <c:pt idx="31">
+                <c:v>52</c:v>
+              </c:pt>
+              <c:pt idx="32">
+                <c:v>53</c:v>
+              </c:pt>
+              <c:pt idx="33">
+                <c:v>54</c:v>
+              </c:pt>
+              <c:pt idx="34">
+                <c:v>55</c:v>
+              </c:pt>
+              <c:pt idx="35">
+                <c:v>56</c:v>
+              </c:pt>
+              <c:pt idx="36">
+                <c:v>57</c:v>
+              </c:pt>
+              <c:pt idx="37">
+                <c:v>58</c:v>
+              </c:pt>
+              <c:pt idx="38">
+                <c:v>59</c:v>
+              </c:pt>
+              <c:pt idx="39">
+                <c:v>60</c:v>
+              </c:pt>
+              <c:pt idx="40">
+                <c:v>61</c:v>
+              </c:pt>
+              <c:pt idx="41">
+                <c:v>62</c:v>
+              </c:pt>
+              <c:pt idx="42">
+                <c:v>63</c:v>
+              </c:pt>
+              <c:pt idx="43">
+                <c:v>64</c:v>
+              </c:pt>
+              <c:pt idx="44">
+                <c:v>65</c:v>
+              </c:pt>
+              <c:pt idx="45">
+                <c:v>66</c:v>
+              </c:pt>
+              <c:pt idx="46">
+                <c:v>67</c:v>
+              </c:pt>
+              <c:pt idx="47">
+                <c:v>68</c:v>
+              </c:pt>
+              <c:pt idx="48">
+                <c:v>69</c:v>
+              </c:pt>
+              <c:pt idx="49">
+                <c:v>70</c:v>
+              </c:pt>
+              <c:pt idx="50">
+                <c:v>71</c:v>
+              </c:pt>
+              <c:pt idx="51">
+                <c:v>72</c:v>
+              </c:pt>
+              <c:pt idx="52">
+                <c:v>73</c:v>
+              </c:pt>
+              <c:pt idx="53">
+                <c:v>74</c:v>
+              </c:pt>
+              <c:pt idx="54">
+                <c:v>75</c:v>
+              </c:pt>
+              <c:pt idx="55">
+                <c:v>76</c:v>
+              </c:pt>
+              <c:pt idx="56">
+                <c:v>77</c:v>
+              </c:pt>
+              <c:pt idx="57">
+                <c:v>78</c:v>
+              </c:pt>
+              <c:pt idx="58">
+                <c:v>79</c:v>
+              </c:pt>
+              <c:pt idx="59">
+                <c:v>80</c:v>
+              </c:pt>
+              <c:pt idx="60">
+                <c:v>81</c:v>
+              </c:pt>
+              <c:pt idx="61">
+                <c:v>82</c:v>
+              </c:pt>
+              <c:pt idx="62">
+                <c:v>83</c:v>
+              </c:pt>
+              <c:pt idx="63">
+                <c:v>84</c:v>
+              </c:pt>
+              <c:pt idx="64">
+                <c:v>85</c:v>
+              </c:pt>
+              <c:pt idx="65">
+                <c:v>86</c:v>
+              </c:pt>
+              <c:pt idx="66">
+                <c:v>87</c:v>
+              </c:pt>
+              <c:pt idx="67">
+                <c:v>88</c:v>
+              </c:pt>
+              <c:pt idx="68">
+                <c:v>89</c:v>
+              </c:pt>
+              <c:pt idx="69">
+                <c:v>90</c:v>
+              </c:pt>
+              <c:pt idx="70">
+                <c:v>91</c:v>
+              </c:pt>
+              <c:pt idx="71">
+                <c:v>92</c:v>
+              </c:pt>
+              <c:pt idx="72">
+                <c:v>93</c:v>
+              </c:pt>
+              <c:pt idx="73">
+                <c:v>94</c:v>
+              </c:pt>
+              <c:pt idx="74">
+                <c:v>95</c:v>
+              </c:pt>
+              <c:pt idx="75">
+                <c:v>96</c:v>
+              </c:pt>
+              <c:pt idx="76">
+                <c:v>97</c:v>
+              </c:pt>
+              <c:pt idx="77">
+                <c:v>98</c:v>
+              </c:pt>
+              <c:pt idx="78">
+                <c:v>99</c:v>
+              </c:pt>
+              <c:pt idx="79">
+                <c:v>100</c:v>
+              </c:pt>
+              <c:pt idx="80">
+                <c:v>101</c:v>
+              </c:pt>
+              <c:pt idx="81">
+                <c:v>102</c:v>
+              </c:pt>
+              <c:pt idx="82">
+                <c:v>103</c:v>
+              </c:pt>
+              <c:pt idx="83">
+                <c:v>104</c:v>
+              </c:pt>
+              <c:pt idx="84">
+                <c:v>105</c:v>
+              </c:pt>
+              <c:pt idx="85">
+                <c:v>106</c:v>
+              </c:pt>
+              <c:pt idx="86">
+                <c:v>107</c:v>
+              </c:pt>
+              <c:pt idx="87">
+                <c:v>108</c:v>
+              </c:pt>
+              <c:pt idx="88">
+                <c:v>109</c:v>
+              </c:pt>
+              <c:pt idx="89">
+                <c:v>110</c:v>
+              </c:pt>
+              <c:pt idx="90">
+                <c:v>111</c:v>
+              </c:pt>
+              <c:pt idx="91">
+                <c:v>112</c:v>
+              </c:pt>
+              <c:pt idx="92">
+                <c:v>113</c:v>
+              </c:pt>
+              <c:pt idx="93">
+                <c:v>114</c:v>
+              </c:pt>
+              <c:pt idx="94">
+                <c:v>115</c:v>
+              </c:pt>
+              <c:pt idx="95">
+                <c:v>116</c:v>
+              </c:pt>
+              <c:pt idx="96">
+                <c:v>117</c:v>
+              </c:pt>
+              <c:pt idx="97">
+                <c:v>118</c:v>
+              </c:pt>
+              <c:pt idx="98">
+                <c:v>119</c:v>
+              </c:pt>
+              <c:pt idx="99">
+                <c:v>120</c:v>
+              </c:pt>
+              <c:pt idx="100">
+                <c:v>121</c:v>
+              </c:pt>
+              <c:pt idx="101">
+                <c:v>122</c:v>
+              </c:pt>
+              <c:pt idx="102">
+                <c:v>123</c:v>
+              </c:pt>
+              <c:pt idx="103">
+                <c:v>124</c:v>
+              </c:pt>
+              <c:pt idx="104">
+                <c:v>125</c:v>
+              </c:pt>
+              <c:pt idx="105">
+                <c:v>126</c:v>
+              </c:pt>
+              <c:pt idx="106">
+                <c:v>127</c:v>
+              </c:pt>
+              <c:pt idx="107">
+                <c:v>128</c:v>
+              </c:pt>
+              <c:pt idx="108">
+                <c:v>129</c:v>
+              </c:pt>
+              <c:pt idx="109">
+                <c:v>130</c:v>
+              </c:pt>
+              <c:pt idx="110">
+                <c:v>131</c:v>
+              </c:pt>
+              <c:pt idx="111">
+                <c:v>132</c:v>
+              </c:pt>
+              <c:pt idx="112">
+                <c:v>133</c:v>
+              </c:pt>
+              <c:pt idx="113">
+                <c:v>134</c:v>
+              </c:pt>
+              <c:pt idx="114">
+                <c:v>135</c:v>
+              </c:pt>
+              <c:pt idx="115">
+                <c:v>136</c:v>
+              </c:pt>
+              <c:pt idx="116">
+                <c:v>137</c:v>
+              </c:pt>
+              <c:pt idx="117">
+                <c:v>138</c:v>
+              </c:pt>
+              <c:pt idx="118">
+                <c:v>139</c:v>
+              </c:pt>
+              <c:pt idx="119">
+                <c:v>140</c:v>
+              </c:pt>
+              <c:pt idx="120">
+                <c:v>141</c:v>
+              </c:pt>
+              <c:pt idx="121">
+                <c:v>142</c:v>
+              </c:pt>
+              <c:pt idx="122">
+                <c:v>143</c:v>
+              </c:pt>
+              <c:pt idx="123">
+                <c:v>144</c:v>
+              </c:pt>
+              <c:pt idx="124">
+                <c:v>145</c:v>
+              </c:pt>
+              <c:pt idx="125">
+                <c:v>146</c:v>
+              </c:pt>
+              <c:pt idx="126">
+                <c:v>147</c:v>
+              </c:pt>
+              <c:pt idx="127">
+                <c:v>148</c:v>
+              </c:pt>
+              <c:pt idx="128">
+                <c:v>149</c:v>
+              </c:pt>
+              <c:pt idx="129">
+                <c:v>150</c:v>
+              </c:pt>
+              <c:pt idx="130">
+                <c:v>151</c:v>
+              </c:pt>
+              <c:pt idx="131">
+                <c:v>152</c:v>
+              </c:pt>
+              <c:pt idx="132">
+                <c:v>153</c:v>
+              </c:pt>
+              <c:pt idx="133">
+                <c:v>154</c:v>
+              </c:pt>
+              <c:pt idx="134">
+                <c:v>155</c:v>
+              </c:pt>
+              <c:pt idx="135">
+                <c:v>156</c:v>
+              </c:pt>
+              <c:pt idx="136">
+                <c:v>157</c:v>
+              </c:pt>
+              <c:pt idx="137">
+                <c:v>158</c:v>
+              </c:pt>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:autoCat val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'20-09-02'!$B$8:$B$165</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'20-09-02'!$B$28:$B$165</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="138"/>
+                <c:pt idx="0">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E231-4E62-9501-CB58E8F809F2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="138"/>
+              <c:pt idx="0">
+                <c:v>21</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>22</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>23</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>24</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>25</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>26</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>27</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>28</c:v>
+              </c:pt>
+              <c:pt idx="8">
+                <c:v>29</c:v>
+              </c:pt>
+              <c:pt idx="9">
+                <c:v>30</c:v>
+              </c:pt>
+              <c:pt idx="10">
+                <c:v>31</c:v>
+              </c:pt>
+              <c:pt idx="11">
+                <c:v>32</c:v>
+              </c:pt>
+              <c:pt idx="12">
+                <c:v>33</c:v>
+              </c:pt>
+              <c:pt idx="13">
+                <c:v>34</c:v>
+              </c:pt>
+              <c:pt idx="14">
+                <c:v>35</c:v>
+              </c:pt>
+              <c:pt idx="15">
+                <c:v>36</c:v>
+              </c:pt>
+              <c:pt idx="16">
+                <c:v>37</c:v>
+              </c:pt>
+              <c:pt idx="17">
+                <c:v>38</c:v>
+              </c:pt>
+              <c:pt idx="18">
+                <c:v>39</c:v>
+              </c:pt>
+              <c:pt idx="19">
+                <c:v>40</c:v>
+              </c:pt>
+              <c:pt idx="20">
+                <c:v>41</c:v>
+              </c:pt>
+              <c:pt idx="21">
+                <c:v>42</c:v>
+              </c:pt>
+              <c:pt idx="22">
+                <c:v>43</c:v>
+              </c:pt>
+              <c:pt idx="23">
+                <c:v>44</c:v>
+              </c:pt>
+              <c:pt idx="24">
+                <c:v>45</c:v>
+              </c:pt>
+              <c:pt idx="25">
+                <c:v>46</c:v>
+              </c:pt>
+              <c:pt idx="26">
+                <c:v>47</c:v>
+              </c:pt>
+              <c:pt idx="27">
+                <c:v>48</c:v>
+              </c:pt>
+              <c:pt idx="28">
+                <c:v>49</c:v>
+              </c:pt>
+              <c:pt idx="29">
+                <c:v>50</c:v>
+              </c:pt>
+              <c:pt idx="30">
+                <c:v>51</c:v>
+              </c:pt>
+              <c:pt idx="31">
+                <c:v>52</c:v>
+              </c:pt>
+              <c:pt idx="32">
+                <c:v>53</c:v>
+              </c:pt>
+              <c:pt idx="33">
+                <c:v>54</c:v>
+              </c:pt>
+              <c:pt idx="34">
+                <c:v>55</c:v>
+              </c:pt>
+              <c:pt idx="35">
+                <c:v>56</c:v>
+              </c:pt>
+              <c:pt idx="36">
+                <c:v>57</c:v>
+              </c:pt>
+              <c:pt idx="37">
+                <c:v>58</c:v>
+              </c:pt>
+              <c:pt idx="38">
+                <c:v>59</c:v>
+              </c:pt>
+              <c:pt idx="39">
+                <c:v>60</c:v>
+              </c:pt>
+              <c:pt idx="40">
+                <c:v>61</c:v>
+              </c:pt>
+              <c:pt idx="41">
+                <c:v>62</c:v>
+              </c:pt>
+              <c:pt idx="42">
+                <c:v>63</c:v>
+              </c:pt>
+              <c:pt idx="43">
+                <c:v>64</c:v>
+              </c:pt>
+              <c:pt idx="44">
+                <c:v>65</c:v>
+              </c:pt>
+              <c:pt idx="45">
+                <c:v>66</c:v>
+              </c:pt>
+              <c:pt idx="46">
+                <c:v>67</c:v>
+              </c:pt>
+              <c:pt idx="47">
+                <c:v>68</c:v>
+              </c:pt>
+              <c:pt idx="48">
+                <c:v>69</c:v>
+              </c:pt>
+              <c:pt idx="49">
+                <c:v>70</c:v>
+              </c:pt>
+              <c:pt idx="50">
+                <c:v>71</c:v>
+              </c:pt>
+              <c:pt idx="51">
+                <c:v>72</c:v>
+              </c:pt>
+              <c:pt idx="52">
+                <c:v>73</c:v>
+              </c:pt>
+              <c:pt idx="53">
+                <c:v>74</c:v>
+              </c:pt>
+              <c:pt idx="54">
+                <c:v>75</c:v>
+              </c:pt>
+              <c:pt idx="55">
+                <c:v>76</c:v>
+              </c:pt>
+              <c:pt idx="56">
+                <c:v>77</c:v>
+              </c:pt>
+              <c:pt idx="57">
+                <c:v>78</c:v>
+              </c:pt>
+              <c:pt idx="58">
+                <c:v>79</c:v>
+              </c:pt>
+              <c:pt idx="59">
+                <c:v>80</c:v>
+              </c:pt>
+              <c:pt idx="60">
+                <c:v>81</c:v>
+              </c:pt>
+              <c:pt idx="61">
+                <c:v>82</c:v>
+              </c:pt>
+              <c:pt idx="62">
+                <c:v>83</c:v>
+              </c:pt>
+              <c:pt idx="63">
+                <c:v>84</c:v>
+              </c:pt>
+              <c:pt idx="64">
+                <c:v>85</c:v>
+              </c:pt>
+              <c:pt idx="65">
+                <c:v>86</c:v>
+              </c:pt>
+              <c:pt idx="66">
+                <c:v>87</c:v>
+              </c:pt>
+              <c:pt idx="67">
+                <c:v>88</c:v>
+              </c:pt>
+              <c:pt idx="68">
+                <c:v>89</c:v>
+              </c:pt>
+              <c:pt idx="69">
+                <c:v>90</c:v>
+              </c:pt>
+              <c:pt idx="70">
+                <c:v>91</c:v>
+              </c:pt>
+              <c:pt idx="71">
+                <c:v>92</c:v>
+              </c:pt>
+              <c:pt idx="72">
+                <c:v>93</c:v>
+              </c:pt>
+              <c:pt idx="73">
+                <c:v>94</c:v>
+              </c:pt>
+              <c:pt idx="74">
+                <c:v>95</c:v>
+              </c:pt>
+              <c:pt idx="75">
+                <c:v>96</c:v>
+              </c:pt>
+              <c:pt idx="76">
+                <c:v>97</c:v>
+              </c:pt>
+              <c:pt idx="77">
+                <c:v>98</c:v>
+              </c:pt>
+              <c:pt idx="78">
+                <c:v>99</c:v>
+              </c:pt>
+              <c:pt idx="79">
+                <c:v>100</c:v>
+              </c:pt>
+              <c:pt idx="80">
+                <c:v>101</c:v>
+              </c:pt>
+              <c:pt idx="81">
+                <c:v>102</c:v>
+              </c:pt>
+              <c:pt idx="82">
+                <c:v>103</c:v>
+              </c:pt>
+              <c:pt idx="83">
+                <c:v>104</c:v>
+              </c:pt>
+              <c:pt idx="84">
+                <c:v>105</c:v>
+              </c:pt>
+              <c:pt idx="85">
+                <c:v>106</c:v>
+              </c:pt>
+              <c:pt idx="86">
+                <c:v>107</c:v>
+              </c:pt>
+              <c:pt idx="87">
+                <c:v>108</c:v>
+              </c:pt>
+              <c:pt idx="88">
+                <c:v>109</c:v>
+              </c:pt>
+              <c:pt idx="89">
+                <c:v>110</c:v>
+              </c:pt>
+              <c:pt idx="90">
+                <c:v>111</c:v>
+              </c:pt>
+              <c:pt idx="91">
+                <c:v>112</c:v>
+              </c:pt>
+              <c:pt idx="92">
+                <c:v>113</c:v>
+              </c:pt>
+              <c:pt idx="93">
+                <c:v>114</c:v>
+              </c:pt>
+              <c:pt idx="94">
+                <c:v>115</c:v>
+              </c:pt>
+              <c:pt idx="95">
+                <c:v>116</c:v>
+              </c:pt>
+              <c:pt idx="96">
+                <c:v>117</c:v>
+              </c:pt>
+              <c:pt idx="97">
+                <c:v>118</c:v>
+              </c:pt>
+              <c:pt idx="98">
+                <c:v>119</c:v>
+              </c:pt>
+              <c:pt idx="99">
+                <c:v>120</c:v>
+              </c:pt>
+              <c:pt idx="100">
+                <c:v>121</c:v>
+              </c:pt>
+              <c:pt idx="101">
+                <c:v>122</c:v>
+              </c:pt>
+              <c:pt idx="102">
+                <c:v>123</c:v>
+              </c:pt>
+              <c:pt idx="103">
+                <c:v>124</c:v>
+              </c:pt>
+              <c:pt idx="104">
+                <c:v>125</c:v>
+              </c:pt>
+              <c:pt idx="105">
+                <c:v>126</c:v>
+              </c:pt>
+              <c:pt idx="106">
+                <c:v>127</c:v>
+              </c:pt>
+              <c:pt idx="107">
+                <c:v>128</c:v>
+              </c:pt>
+              <c:pt idx="108">
+                <c:v>129</c:v>
+              </c:pt>
+              <c:pt idx="109">
+                <c:v>130</c:v>
+              </c:pt>
+              <c:pt idx="110">
+                <c:v>131</c:v>
+              </c:pt>
+              <c:pt idx="111">
+                <c:v>132</c:v>
+              </c:pt>
+              <c:pt idx="112">
+                <c:v>133</c:v>
+              </c:pt>
+              <c:pt idx="113">
+                <c:v>134</c:v>
+              </c:pt>
+              <c:pt idx="114">
+                <c:v>135</c:v>
+              </c:pt>
+              <c:pt idx="115">
+                <c:v>136</c:v>
+              </c:pt>
+              <c:pt idx="116">
+                <c:v>137</c:v>
+              </c:pt>
+              <c:pt idx="117">
+                <c:v>138</c:v>
+              </c:pt>
+              <c:pt idx="118">
+                <c:v>139</c:v>
+              </c:pt>
+              <c:pt idx="119">
+                <c:v>140</c:v>
+              </c:pt>
+              <c:pt idx="120">
+                <c:v>141</c:v>
+              </c:pt>
+              <c:pt idx="121">
+                <c:v>142</c:v>
+              </c:pt>
+              <c:pt idx="122">
+                <c:v>143</c:v>
+              </c:pt>
+              <c:pt idx="123">
+                <c:v>144</c:v>
+              </c:pt>
+              <c:pt idx="124">
+                <c:v>145</c:v>
+              </c:pt>
+              <c:pt idx="125">
+                <c:v>146</c:v>
+              </c:pt>
+              <c:pt idx="126">
+                <c:v>147</c:v>
+              </c:pt>
+              <c:pt idx="127">
+                <c:v>148</c:v>
+              </c:pt>
+              <c:pt idx="128">
+                <c:v>149</c:v>
+              </c:pt>
+              <c:pt idx="129">
+                <c:v>150</c:v>
+              </c:pt>
+              <c:pt idx="130">
+                <c:v>151</c:v>
+              </c:pt>
+              <c:pt idx="131">
+                <c:v>152</c:v>
+              </c:pt>
+              <c:pt idx="132">
+                <c:v>153</c:v>
+              </c:pt>
+              <c:pt idx="133">
+                <c:v>154</c:v>
+              </c:pt>
+              <c:pt idx="134">
+                <c:v>155</c:v>
+              </c:pt>
+              <c:pt idx="135">
+                <c:v>156</c:v>
+              </c:pt>
+              <c:pt idx="136">
+                <c:v>157</c:v>
+              </c:pt>
+              <c:pt idx="137">
+                <c:v>158</c:v>
+              </c:pt>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:autoCat val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'20-09-02'!$C$8:$C$165</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'20-09-02'!$C$28:$C$165</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="138"/>
+                <c:pt idx="0">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>8.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E231-4E62-9501-CB58E8F809F2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="138"/>
+              <c:pt idx="0">
+                <c:v>21</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>22</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>23</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>24</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>25</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>26</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>27</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>28</c:v>
+              </c:pt>
+              <c:pt idx="8">
+                <c:v>29</c:v>
+              </c:pt>
+              <c:pt idx="9">
+                <c:v>30</c:v>
+              </c:pt>
+              <c:pt idx="10">
+                <c:v>31</c:v>
+              </c:pt>
+              <c:pt idx="11">
+                <c:v>32</c:v>
+              </c:pt>
+              <c:pt idx="12">
+                <c:v>33</c:v>
+              </c:pt>
+              <c:pt idx="13">
+                <c:v>34</c:v>
+              </c:pt>
+              <c:pt idx="14">
+                <c:v>35</c:v>
+              </c:pt>
+              <c:pt idx="15">
+                <c:v>36</c:v>
+              </c:pt>
+              <c:pt idx="16">
+                <c:v>37</c:v>
+              </c:pt>
+              <c:pt idx="17">
+                <c:v>38</c:v>
+              </c:pt>
+              <c:pt idx="18">
+                <c:v>39</c:v>
+              </c:pt>
+              <c:pt idx="19">
+                <c:v>40</c:v>
+              </c:pt>
+              <c:pt idx="20">
+                <c:v>41</c:v>
+              </c:pt>
+              <c:pt idx="21">
+                <c:v>42</c:v>
+              </c:pt>
+              <c:pt idx="22">
+                <c:v>43</c:v>
+              </c:pt>
+              <c:pt idx="23">
+                <c:v>44</c:v>
+              </c:pt>
+              <c:pt idx="24">
+                <c:v>45</c:v>
+              </c:pt>
+              <c:pt idx="25">
+                <c:v>46</c:v>
+              </c:pt>
+              <c:pt idx="26">
+                <c:v>47</c:v>
+              </c:pt>
+              <c:pt idx="27">
+                <c:v>48</c:v>
+              </c:pt>
+              <c:pt idx="28">
+                <c:v>49</c:v>
+              </c:pt>
+              <c:pt idx="29">
+                <c:v>50</c:v>
+              </c:pt>
+              <c:pt idx="30">
+                <c:v>51</c:v>
+              </c:pt>
+              <c:pt idx="31">
+                <c:v>52</c:v>
+              </c:pt>
+              <c:pt idx="32">
+                <c:v>53</c:v>
+              </c:pt>
+              <c:pt idx="33">
+                <c:v>54</c:v>
+              </c:pt>
+              <c:pt idx="34">
+                <c:v>55</c:v>
+              </c:pt>
+              <c:pt idx="35">
+                <c:v>56</c:v>
+              </c:pt>
+              <c:pt idx="36">
+                <c:v>57</c:v>
+              </c:pt>
+              <c:pt idx="37">
+                <c:v>58</c:v>
+              </c:pt>
+              <c:pt idx="38">
+                <c:v>59</c:v>
+              </c:pt>
+              <c:pt idx="39">
+                <c:v>60</c:v>
+              </c:pt>
+              <c:pt idx="40">
+                <c:v>61</c:v>
+              </c:pt>
+              <c:pt idx="41">
+                <c:v>62</c:v>
+              </c:pt>
+              <c:pt idx="42">
+                <c:v>63</c:v>
+              </c:pt>
+              <c:pt idx="43">
+                <c:v>64</c:v>
+              </c:pt>
+              <c:pt idx="44">
+                <c:v>65</c:v>
+              </c:pt>
+              <c:pt idx="45">
+                <c:v>66</c:v>
+              </c:pt>
+              <c:pt idx="46">
+                <c:v>67</c:v>
+              </c:pt>
+              <c:pt idx="47">
+                <c:v>68</c:v>
+              </c:pt>
+              <c:pt idx="48">
+                <c:v>69</c:v>
+              </c:pt>
+              <c:pt idx="49">
+                <c:v>70</c:v>
+              </c:pt>
+              <c:pt idx="50">
+                <c:v>71</c:v>
+              </c:pt>
+              <c:pt idx="51">
+                <c:v>72</c:v>
+              </c:pt>
+              <c:pt idx="52">
+                <c:v>73</c:v>
+              </c:pt>
+              <c:pt idx="53">
+                <c:v>74</c:v>
+              </c:pt>
+              <c:pt idx="54">
+                <c:v>75</c:v>
+              </c:pt>
+              <c:pt idx="55">
+                <c:v>76</c:v>
+              </c:pt>
+              <c:pt idx="56">
+                <c:v>77</c:v>
+              </c:pt>
+              <c:pt idx="57">
+                <c:v>78</c:v>
+              </c:pt>
+              <c:pt idx="58">
+                <c:v>79</c:v>
+              </c:pt>
+              <c:pt idx="59">
+                <c:v>80</c:v>
+              </c:pt>
+              <c:pt idx="60">
+                <c:v>81</c:v>
+              </c:pt>
+              <c:pt idx="61">
+                <c:v>82</c:v>
+              </c:pt>
+              <c:pt idx="62">
+                <c:v>83</c:v>
+              </c:pt>
+              <c:pt idx="63">
+                <c:v>84</c:v>
+              </c:pt>
+              <c:pt idx="64">
+                <c:v>85</c:v>
+              </c:pt>
+              <c:pt idx="65">
+                <c:v>86</c:v>
+              </c:pt>
+              <c:pt idx="66">
+                <c:v>87</c:v>
+              </c:pt>
+              <c:pt idx="67">
+                <c:v>88</c:v>
+              </c:pt>
+              <c:pt idx="68">
+                <c:v>89</c:v>
+              </c:pt>
+              <c:pt idx="69">
+                <c:v>90</c:v>
+              </c:pt>
+              <c:pt idx="70">
+                <c:v>91</c:v>
+              </c:pt>
+              <c:pt idx="71">
+                <c:v>92</c:v>
+              </c:pt>
+              <c:pt idx="72">
+                <c:v>93</c:v>
+              </c:pt>
+              <c:pt idx="73">
+                <c:v>94</c:v>
+              </c:pt>
+              <c:pt idx="74">
+                <c:v>95</c:v>
+              </c:pt>
+              <c:pt idx="75">
+                <c:v>96</c:v>
+              </c:pt>
+              <c:pt idx="76">
+                <c:v>97</c:v>
+              </c:pt>
+              <c:pt idx="77">
+                <c:v>98</c:v>
+              </c:pt>
+              <c:pt idx="78">
+                <c:v>99</c:v>
+              </c:pt>
+              <c:pt idx="79">
+                <c:v>100</c:v>
+              </c:pt>
+              <c:pt idx="80">
+                <c:v>101</c:v>
+              </c:pt>
+              <c:pt idx="81">
+                <c:v>102</c:v>
+              </c:pt>
+              <c:pt idx="82">
+                <c:v>103</c:v>
+              </c:pt>
+              <c:pt idx="83">
+                <c:v>104</c:v>
+              </c:pt>
+              <c:pt idx="84">
+                <c:v>105</c:v>
+              </c:pt>
+              <c:pt idx="85">
+                <c:v>106</c:v>
+              </c:pt>
+              <c:pt idx="86">
+                <c:v>107</c:v>
+              </c:pt>
+              <c:pt idx="87">
+                <c:v>108</c:v>
+              </c:pt>
+              <c:pt idx="88">
+                <c:v>109</c:v>
+              </c:pt>
+              <c:pt idx="89">
+                <c:v>110</c:v>
+              </c:pt>
+              <c:pt idx="90">
+                <c:v>111</c:v>
+              </c:pt>
+              <c:pt idx="91">
+                <c:v>112</c:v>
+              </c:pt>
+              <c:pt idx="92">
+                <c:v>113</c:v>
+              </c:pt>
+              <c:pt idx="93">
+                <c:v>114</c:v>
+              </c:pt>
+              <c:pt idx="94">
+                <c:v>115</c:v>
+              </c:pt>
+              <c:pt idx="95">
+                <c:v>116</c:v>
+              </c:pt>
+              <c:pt idx="96">
+                <c:v>117</c:v>
+              </c:pt>
+              <c:pt idx="97">
+                <c:v>118</c:v>
+              </c:pt>
+              <c:pt idx="98">
+                <c:v>119</c:v>
+              </c:pt>
+              <c:pt idx="99">
+                <c:v>120</c:v>
+              </c:pt>
+              <c:pt idx="100">
+                <c:v>121</c:v>
+              </c:pt>
+              <c:pt idx="101">
+                <c:v>122</c:v>
+              </c:pt>
+              <c:pt idx="102">
+                <c:v>123</c:v>
+              </c:pt>
+              <c:pt idx="103">
+                <c:v>124</c:v>
+              </c:pt>
+              <c:pt idx="104">
+                <c:v>125</c:v>
+              </c:pt>
+              <c:pt idx="105">
+                <c:v>126</c:v>
+              </c:pt>
+              <c:pt idx="106">
+                <c:v>127</c:v>
+              </c:pt>
+              <c:pt idx="107">
+                <c:v>128</c:v>
+              </c:pt>
+              <c:pt idx="108">
+                <c:v>129</c:v>
+              </c:pt>
+              <c:pt idx="109">
+                <c:v>130</c:v>
+              </c:pt>
+              <c:pt idx="110">
+                <c:v>131</c:v>
+              </c:pt>
+              <c:pt idx="111">
+                <c:v>132</c:v>
+              </c:pt>
+              <c:pt idx="112">
+                <c:v>133</c:v>
+              </c:pt>
+              <c:pt idx="113">
+                <c:v>134</c:v>
+              </c:pt>
+              <c:pt idx="114">
+                <c:v>135</c:v>
+              </c:pt>
+              <c:pt idx="115">
+                <c:v>136</c:v>
+              </c:pt>
+              <c:pt idx="116">
+                <c:v>137</c:v>
+              </c:pt>
+              <c:pt idx="117">
+                <c:v>138</c:v>
+              </c:pt>
+              <c:pt idx="118">
+                <c:v>139</c:v>
+              </c:pt>
+              <c:pt idx="119">
+                <c:v>140</c:v>
+              </c:pt>
+              <c:pt idx="120">
+                <c:v>141</c:v>
+              </c:pt>
+              <c:pt idx="121">
+                <c:v>142</c:v>
+              </c:pt>
+              <c:pt idx="122">
+                <c:v>143</c:v>
+              </c:pt>
+              <c:pt idx="123">
+                <c:v>144</c:v>
+              </c:pt>
+              <c:pt idx="124">
+                <c:v>145</c:v>
+              </c:pt>
+              <c:pt idx="125">
+                <c:v>146</c:v>
+              </c:pt>
+              <c:pt idx="126">
+                <c:v>147</c:v>
+              </c:pt>
+              <c:pt idx="127">
+                <c:v>148</c:v>
+              </c:pt>
+              <c:pt idx="128">
+                <c:v>149</c:v>
+              </c:pt>
+              <c:pt idx="129">
+                <c:v>150</c:v>
+              </c:pt>
+              <c:pt idx="130">
+                <c:v>151</c:v>
+              </c:pt>
+              <c:pt idx="131">
+                <c:v>152</c:v>
+              </c:pt>
+              <c:pt idx="132">
+                <c:v>153</c:v>
+              </c:pt>
+              <c:pt idx="133">
+                <c:v>154</c:v>
+              </c:pt>
+              <c:pt idx="134">
+                <c:v>155</c:v>
+              </c:pt>
+              <c:pt idx="135">
+                <c:v>156</c:v>
+              </c:pt>
+              <c:pt idx="136">
+                <c:v>157</c:v>
+              </c:pt>
+              <c:pt idx="137">
+                <c:v>158</c:v>
+              </c:pt>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:autoCat val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'20-09-02'!$D$8:$D$165</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'20-09-02'!$D$28:$D$165</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="138"/>
+                <c:pt idx="0">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-E231-4E62-9501-CB58E8F809F2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="2058398912"/>
+        <c:axId val="1865762848"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2058398912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1865762848"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1865762848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="2"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2058398912"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
@@ -12525,6 +16040,802 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart30.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'20-09-02'!$B$112:$B$161</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3DC0-4C99-BB40-D040339B7662}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'20-09-02'!$C$112:$C$161</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3DC0-4C99-BB40-D040339B7662}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'20-09-02'!$D$112:$D$161</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-3DC0-4C99-BB40-D040339B7662}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="2058398912"/>
+        <c:axId val="1865762848"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2058398912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1865762848"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1865762848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="2"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2058398912"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -15889,7 +20200,127 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors28.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors29.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors30.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -26441,7 +30872,1555 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style28.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style29.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style30.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -30333,6 +36312,121 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>654050</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F21B13D-B1B7-493E-812A-69466303CE5C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>31750</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{813CE7C1-B6B2-41F2-AC0E-1EF48CC937D0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>488950</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="图表 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41BA5F02-89BF-4B16-8D01-84F6B1DC375E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -33194,8 +39288,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{540CEBB5-F5A7-4634-80CF-09BB35199156}">
   <dimension ref="A1:M83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="A84" sqref="A84"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -34052,6 +40146,2595 @@
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="8"/>
       <c r="B83" s="8"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1B6A8F1-D91E-4283-829A-85D1336F7B8A}">
+  <dimension ref="A1:I165"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="M51" sqref="M51"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="G2" s="8"/>
+      <c r="I2" s="3"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>167</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="G3" s="8"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>7</v>
+      </c>
+      <c r="D8">
+        <v>5</v>
+      </c>
+      <c r="E8" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <v>5</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10" s="10">
+        <v>5</v>
+      </c>
+      <c r="C10" s="10">
+        <v>7</v>
+      </c>
+      <c r="D10" s="10">
+        <v>4</v>
+      </c>
+      <c r="E10" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>4</v>
+      </c>
+      <c r="B11" s="9">
+        <v>5</v>
+      </c>
+      <c r="C11" s="9">
+        <v>7.5</v>
+      </c>
+      <c r="D11" s="9">
+        <v>6</v>
+      </c>
+      <c r="E11" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>5</v>
+      </c>
+      <c r="B12" s="9">
+        <v>4</v>
+      </c>
+      <c r="C12" s="9">
+        <v>6</v>
+      </c>
+      <c r="D12" s="9">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>6</v>
+      </c>
+      <c r="B13" s="9">
+        <v>6</v>
+      </c>
+      <c r="C13" s="9">
+        <v>9</v>
+      </c>
+      <c r="D13" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>7</v>
+      </c>
+      <c r="B14" s="9">
+        <v>8</v>
+      </c>
+      <c r="C14" s="9">
+        <v>10</v>
+      </c>
+      <c r="D14" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>8</v>
+      </c>
+      <c r="B15" s="9">
+        <v>8.5</v>
+      </c>
+      <c r="C15" s="9">
+        <v>10</v>
+      </c>
+      <c r="D15" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>9</v>
+      </c>
+      <c r="B16" s="9">
+        <v>5.5</v>
+      </c>
+      <c r="C16" s="9">
+        <v>7</v>
+      </c>
+      <c r="D16" s="9">
+        <v>4.5</v>
+      </c>
+      <c r="E16">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>10</v>
+      </c>
+      <c r="B17" s="9">
+        <v>5.5</v>
+      </c>
+      <c r="C17" s="9">
+        <v>7.5</v>
+      </c>
+      <c r="D17" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>11</v>
+      </c>
+      <c r="B18" s="9">
+        <v>6.5</v>
+      </c>
+      <c r="C18" s="9">
+        <v>8</v>
+      </c>
+      <c r="D18" s="9">
+        <v>6</v>
+      </c>
+      <c r="E18">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>12</v>
+      </c>
+      <c r="B19" s="9">
+        <v>6.5</v>
+      </c>
+      <c r="C19" s="9">
+        <v>8</v>
+      </c>
+      <c r="D19" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>13</v>
+      </c>
+      <c r="B20" s="9">
+        <v>8</v>
+      </c>
+      <c r="C20" s="9">
+        <v>9</v>
+      </c>
+      <c r="D20" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>14</v>
+      </c>
+      <c r="B21" s="9">
+        <v>6</v>
+      </c>
+      <c r="C21" s="9">
+        <v>8.5</v>
+      </c>
+      <c r="D21" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>15</v>
+      </c>
+      <c r="B22" s="9">
+        <v>8</v>
+      </c>
+      <c r="C22" s="9">
+        <v>9.5</v>
+      </c>
+      <c r="D22" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>16</v>
+      </c>
+      <c r="B23" s="9">
+        <v>6</v>
+      </c>
+      <c r="C23" s="9">
+        <v>8</v>
+      </c>
+      <c r="D23" s="9">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>17</v>
+      </c>
+      <c r="B24" s="9">
+        <v>8</v>
+      </c>
+      <c r="C24" s="9">
+        <v>8</v>
+      </c>
+      <c r="D24" s="9">
+        <v>6</v>
+      </c>
+      <c r="E24">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>18</v>
+      </c>
+      <c r="B25" s="9">
+        <v>4.5</v>
+      </c>
+      <c r="C25" s="9">
+        <v>7</v>
+      </c>
+      <c r="D25" s="9">
+        <v>4.5</v>
+      </c>
+      <c r="E25">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>19</v>
+      </c>
+      <c r="B26" s="9">
+        <v>4</v>
+      </c>
+      <c r="C26" s="9">
+        <v>6</v>
+      </c>
+      <c r="D26" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>20</v>
+      </c>
+      <c r="B27" s="9">
+        <v>4</v>
+      </c>
+      <c r="C27" s="9">
+        <v>5</v>
+      </c>
+      <c r="D27" s="9">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>21</v>
+      </c>
+      <c r="B28" s="8">
+        <v>4.5</v>
+      </c>
+      <c r="C28" s="8">
+        <v>6.5</v>
+      </c>
+      <c r="D28" s="8">
+        <v>3.5</v>
+      </c>
+      <c r="E28" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>22</v>
+      </c>
+      <c r="B29" s="8">
+        <v>5</v>
+      </c>
+      <c r="C29" s="8">
+        <v>6.5</v>
+      </c>
+      <c r="D29" s="8">
+        <v>4.5</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>23</v>
+      </c>
+      <c r="B30" s="8">
+        <v>6</v>
+      </c>
+      <c r="C30" s="8">
+        <v>6.5</v>
+      </c>
+      <c r="D30" s="8">
+        <v>4.5</v>
+      </c>
+      <c r="G30" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>24</v>
+      </c>
+      <c r="B31" s="8">
+        <v>6</v>
+      </c>
+      <c r="C31" s="8">
+        <v>7.5</v>
+      </c>
+      <c r="D31" s="8">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>25</v>
+      </c>
+      <c r="B32" s="8">
+        <v>6.5</v>
+      </c>
+      <c r="C32" s="8">
+        <v>7.5</v>
+      </c>
+      <c r="D32" s="8">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>26</v>
+      </c>
+      <c r="B33" s="8">
+        <v>5.5</v>
+      </c>
+      <c r="C33" s="8">
+        <v>7</v>
+      </c>
+      <c r="D33" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>27</v>
+      </c>
+      <c r="B34" s="8">
+        <v>6</v>
+      </c>
+      <c r="C34" s="8">
+        <v>7</v>
+      </c>
+      <c r="D34" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>28</v>
+      </c>
+      <c r="B35" s="8">
+        <v>6.5</v>
+      </c>
+      <c r="C35" s="8">
+        <v>7.5</v>
+      </c>
+      <c r="D35" s="8">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>29</v>
+      </c>
+      <c r="B36" s="8">
+        <v>7</v>
+      </c>
+      <c r="C36" s="8">
+        <v>8</v>
+      </c>
+      <c r="D36" s="8">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>30</v>
+      </c>
+      <c r="B37" s="8">
+        <v>6.5</v>
+      </c>
+      <c r="C37" s="8">
+        <v>7.5</v>
+      </c>
+      <c r="D37" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>31</v>
+      </c>
+      <c r="B38" s="8">
+        <v>6</v>
+      </c>
+      <c r="C38" s="8">
+        <v>8</v>
+      </c>
+      <c r="D38" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>32</v>
+      </c>
+      <c r="B39" s="8">
+        <v>6</v>
+      </c>
+      <c r="C39" s="8">
+        <v>8</v>
+      </c>
+      <c r="D39" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>33</v>
+      </c>
+      <c r="B40" s="8">
+        <v>5.5</v>
+      </c>
+      <c r="C40" s="8">
+        <v>7.5</v>
+      </c>
+      <c r="D40" s="8">
+        <v>4.5</v>
+      </c>
+      <c r="E40" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>34</v>
+      </c>
+      <c r="B41" s="8">
+        <v>5</v>
+      </c>
+      <c r="C41" s="8">
+        <v>7</v>
+      </c>
+      <c r="D41" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>35</v>
+      </c>
+      <c r="B42" s="8">
+        <v>5</v>
+      </c>
+      <c r="C42" s="8">
+        <v>6.5</v>
+      </c>
+      <c r="D42" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>36</v>
+      </c>
+      <c r="B43" s="8">
+        <v>5.5</v>
+      </c>
+      <c r="C43" s="8">
+        <v>7</v>
+      </c>
+      <c r="D43" s="8">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>37</v>
+      </c>
+      <c r="B44" s="8">
+        <v>7</v>
+      </c>
+      <c r="C44" s="8">
+        <v>8</v>
+      </c>
+      <c r="D44" s="8">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>38</v>
+      </c>
+      <c r="B45" s="8">
+        <v>7</v>
+      </c>
+      <c r="C45" s="8">
+        <v>8</v>
+      </c>
+      <c r="D45" s="8">
+        <v>6.5</v>
+      </c>
+      <c r="E45" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>39</v>
+      </c>
+      <c r="B46" s="8">
+        <v>6</v>
+      </c>
+      <c r="C46" s="8">
+        <v>7</v>
+      </c>
+      <c r="D46" s="8">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>40</v>
+      </c>
+      <c r="B47" s="8">
+        <v>6.5</v>
+      </c>
+      <c r="C47" s="8">
+        <v>8</v>
+      </c>
+      <c r="D47" s="8">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>41</v>
+      </c>
+      <c r="B48" s="8">
+        <v>7</v>
+      </c>
+      <c r="C48" s="8">
+        <v>8</v>
+      </c>
+      <c r="D48" s="8">
+        <v>5.5</v>
+      </c>
+      <c r="E48" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>42</v>
+      </c>
+      <c r="B49" s="8">
+        <v>8</v>
+      </c>
+      <c r="C49" s="8">
+        <v>9</v>
+      </c>
+      <c r="D49" s="8">
+        <v>6</v>
+      </c>
+      <c r="E49" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>43</v>
+      </c>
+      <c r="B50" s="8">
+        <v>6</v>
+      </c>
+      <c r="C50" s="8">
+        <v>7</v>
+      </c>
+      <c r="D50" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>44</v>
+      </c>
+      <c r="B51" s="8">
+        <v>5.5</v>
+      </c>
+      <c r="C51" s="8">
+        <v>6.5</v>
+      </c>
+      <c r="D51" s="8">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>45</v>
+      </c>
+      <c r="B52" s="8">
+        <v>4.5</v>
+      </c>
+      <c r="C52" s="8">
+        <v>6.5</v>
+      </c>
+      <c r="D52" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>46</v>
+      </c>
+      <c r="B53" s="8">
+        <v>4.5</v>
+      </c>
+      <c r="C53" s="8">
+        <v>5.5</v>
+      </c>
+      <c r="D53" s="8">
+        <v>3.5</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>47</v>
+      </c>
+      <c r="B54" s="8">
+        <v>5</v>
+      </c>
+      <c r="C54" s="8">
+        <v>7</v>
+      </c>
+      <c r="D54" s="8">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>48</v>
+      </c>
+      <c r="B55" s="8">
+        <v>4.5</v>
+      </c>
+      <c r="C55" s="8">
+        <v>5.5</v>
+      </c>
+      <c r="D55" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>49</v>
+      </c>
+      <c r="B56" s="8">
+        <v>5.5</v>
+      </c>
+      <c r="C56" s="8">
+        <v>6.5</v>
+      </c>
+      <c r="D56" s="8">
+        <v>4.5</v>
+      </c>
+      <c r="E56" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>50</v>
+      </c>
+      <c r="B57" s="8">
+        <v>5</v>
+      </c>
+      <c r="C57" s="8">
+        <v>6.5</v>
+      </c>
+      <c r="D57" s="8">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>51</v>
+      </c>
+      <c r="B58" s="8">
+        <v>6</v>
+      </c>
+      <c r="C58" s="8">
+        <v>8</v>
+      </c>
+      <c r="D58" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>52</v>
+      </c>
+      <c r="B59" s="8">
+        <v>6</v>
+      </c>
+      <c r="C59" s="8">
+        <v>7</v>
+      </c>
+      <c r="D59" s="8">
+        <v>4.5</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>53</v>
+      </c>
+      <c r="B60" s="8">
+        <v>4</v>
+      </c>
+      <c r="C60" s="8">
+        <v>5</v>
+      </c>
+      <c r="D60" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>54</v>
+      </c>
+      <c r="B61" s="8">
+        <v>4.5</v>
+      </c>
+      <c r="C61" s="8">
+        <v>5.5</v>
+      </c>
+      <c r="D61" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>55</v>
+      </c>
+      <c r="B62" s="8">
+        <v>4.5</v>
+      </c>
+      <c r="C62" s="8">
+        <v>6</v>
+      </c>
+      <c r="D62" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>56</v>
+      </c>
+      <c r="B63" s="8">
+        <v>6</v>
+      </c>
+      <c r="C63" s="8">
+        <v>7</v>
+      </c>
+      <c r="D63" s="8">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>57</v>
+      </c>
+      <c r="B64" s="8">
+        <v>6.5</v>
+      </c>
+      <c r="C64" s="8">
+        <v>7</v>
+      </c>
+      <c r="D64" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>58</v>
+      </c>
+      <c r="B65" s="8">
+        <v>6</v>
+      </c>
+      <c r="C65" s="8">
+        <v>7</v>
+      </c>
+      <c r="D65" s="8">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>59</v>
+      </c>
+      <c r="B66" s="8">
+        <v>7</v>
+      </c>
+      <c r="C66" s="8">
+        <v>7</v>
+      </c>
+      <c r="D66" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>60</v>
+      </c>
+      <c r="B67" s="8">
+        <v>6.5</v>
+      </c>
+      <c r="C67" s="8">
+        <v>7</v>
+      </c>
+      <c r="D67" s="8">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>61</v>
+      </c>
+      <c r="B68" s="8">
+        <v>7</v>
+      </c>
+      <c r="C68" s="8">
+        <v>8</v>
+      </c>
+      <c r="D68" s="8">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>62</v>
+      </c>
+      <c r="B69" s="8">
+        <v>7</v>
+      </c>
+      <c r="C69" s="8">
+        <v>7.5</v>
+      </c>
+      <c r="D69" s="8">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>63</v>
+      </c>
+      <c r="B70" s="8">
+        <v>6</v>
+      </c>
+      <c r="C70" s="8">
+        <v>6</v>
+      </c>
+      <c r="D70" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>64</v>
+      </c>
+      <c r="B71" s="8">
+        <v>6</v>
+      </c>
+      <c r="C71" s="8">
+        <v>7</v>
+      </c>
+      <c r="D71" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>65</v>
+      </c>
+      <c r="B72" s="8">
+        <v>5.5</v>
+      </c>
+      <c r="C72" s="8">
+        <v>6.5</v>
+      </c>
+      <c r="D72" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>66</v>
+      </c>
+      <c r="B73" s="8">
+        <v>6.5</v>
+      </c>
+      <c r="C73" s="8">
+        <v>7.5</v>
+      </c>
+      <c r="D73" s="8">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>67</v>
+      </c>
+      <c r="B74" s="8">
+        <v>6</v>
+      </c>
+      <c r="C74" s="8">
+        <v>6</v>
+      </c>
+      <c r="D74" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>68</v>
+      </c>
+      <c r="B75" s="8">
+        <v>6</v>
+      </c>
+      <c r="C75" s="8">
+        <v>7</v>
+      </c>
+      <c r="D75" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>69</v>
+      </c>
+      <c r="B76" s="8">
+        <v>7</v>
+      </c>
+      <c r="C76" s="8">
+        <v>8</v>
+      </c>
+      <c r="D76" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>70</v>
+      </c>
+      <c r="B77" s="8">
+        <v>6</v>
+      </c>
+      <c r="C77" s="8">
+        <v>6.5</v>
+      </c>
+      <c r="D77" s="8">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>71</v>
+      </c>
+      <c r="B78" s="8">
+        <v>7</v>
+      </c>
+      <c r="C78" s="8">
+        <v>7.5</v>
+      </c>
+      <c r="D78" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>72</v>
+      </c>
+      <c r="B79" s="8">
+        <v>7.5</v>
+      </c>
+      <c r="C79" s="8">
+        <v>8</v>
+      </c>
+      <c r="D79" s="8">
+        <v>6</v>
+      </c>
+      <c r="E79" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>73</v>
+      </c>
+      <c r="B80" s="8">
+        <v>7</v>
+      </c>
+      <c r="C80" s="8">
+        <v>7.5</v>
+      </c>
+      <c r="D80" s="8">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>74</v>
+      </c>
+      <c r="B81" s="8">
+        <v>6.5</v>
+      </c>
+      <c r="C81" s="8">
+        <v>8</v>
+      </c>
+      <c r="D81" s="8">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>75</v>
+      </c>
+      <c r="B82" s="8">
+        <v>7</v>
+      </c>
+      <c r="C82" s="8">
+        <v>8</v>
+      </c>
+      <c r="D82" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>76</v>
+      </c>
+      <c r="B83" s="8">
+        <v>8</v>
+      </c>
+      <c r="C83" s="8">
+        <v>9</v>
+      </c>
+      <c r="D83" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>77</v>
+      </c>
+      <c r="B84" s="8">
+        <v>8</v>
+      </c>
+      <c r="C84" s="8">
+        <v>8</v>
+      </c>
+      <c r="D84" s="8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>78</v>
+      </c>
+      <c r="B85" s="8">
+        <v>6</v>
+      </c>
+      <c r="C85" s="8">
+        <v>7</v>
+      </c>
+      <c r="D85" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>79</v>
+      </c>
+      <c r="B86" s="8">
+        <v>6</v>
+      </c>
+      <c r="C86" s="8">
+        <v>6.5</v>
+      </c>
+      <c r="D86" s="8">
+        <v>5</v>
+      </c>
+      <c r="E86" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>80</v>
+      </c>
+      <c r="B87" s="8">
+        <v>6</v>
+      </c>
+      <c r="C87" s="8">
+        <v>6</v>
+      </c>
+      <c r="D87" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>81</v>
+      </c>
+      <c r="B88" s="8">
+        <v>7</v>
+      </c>
+      <c r="C88" s="8">
+        <v>8</v>
+      </c>
+      <c r="D88" s="8">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>82</v>
+      </c>
+      <c r="B89" s="8">
+        <v>5.5</v>
+      </c>
+      <c r="C89" s="8">
+        <v>6</v>
+      </c>
+      <c r="D89" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>83</v>
+      </c>
+      <c r="B90" s="3">
+        <v>5.5</v>
+      </c>
+      <c r="C90" s="3">
+        <v>6.5</v>
+      </c>
+      <c r="D90" s="3">
+        <v>5</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="G90" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>84</v>
+      </c>
+      <c r="B91" s="8">
+        <v>5</v>
+      </c>
+      <c r="C91" s="8">
+        <v>5.5</v>
+      </c>
+      <c r="D91" s="8">
+        <v>4</v>
+      </c>
+      <c r="G91" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>85</v>
+      </c>
+      <c r="B92" s="8">
+        <v>6</v>
+      </c>
+      <c r="C92" s="8">
+        <v>7</v>
+      </c>
+      <c r="D92" s="8">
+        <v>5</v>
+      </c>
+      <c r="G92" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>86</v>
+      </c>
+      <c r="B93" s="8">
+        <v>7</v>
+      </c>
+      <c r="C93" s="8">
+        <v>7</v>
+      </c>
+      <c r="D93" s="8">
+        <v>5.5</v>
+      </c>
+      <c r="G93" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>87</v>
+      </c>
+      <c r="B94" s="8">
+        <v>6</v>
+      </c>
+      <c r="C94" s="8">
+        <v>6.5</v>
+      </c>
+      <c r="D94" s="8">
+        <v>5</v>
+      </c>
+      <c r="G94" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>88</v>
+      </c>
+      <c r="B95" s="8">
+        <v>6</v>
+      </c>
+      <c r="C95" s="8">
+        <v>6.5</v>
+      </c>
+      <c r="D95" s="8">
+        <v>5</v>
+      </c>
+      <c r="G95" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>89</v>
+      </c>
+      <c r="B96" s="8">
+        <v>6.5</v>
+      </c>
+      <c r="C96" s="8">
+        <v>7</v>
+      </c>
+      <c r="D96" s="8">
+        <v>5</v>
+      </c>
+      <c r="G96" s="8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>90</v>
+      </c>
+      <c r="B97" s="8">
+        <v>7</v>
+      </c>
+      <c r="C97" s="8">
+        <v>7</v>
+      </c>
+      <c r="D97" s="8">
+        <v>5</v>
+      </c>
+      <c r="G97" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>91</v>
+      </c>
+      <c r="B98" s="8">
+        <v>6.5</v>
+      </c>
+      <c r="C98" s="8">
+        <v>7</v>
+      </c>
+      <c r="D98" s="8">
+        <v>5.5</v>
+      </c>
+      <c r="G98" s="8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>92</v>
+      </c>
+      <c r="B99" s="8">
+        <v>6.5</v>
+      </c>
+      <c r="C99" s="8">
+        <v>7</v>
+      </c>
+      <c r="D99" s="8">
+        <v>5</v>
+      </c>
+      <c r="G99" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>93</v>
+      </c>
+      <c r="B100" s="8">
+        <v>7</v>
+      </c>
+      <c r="C100" s="8">
+        <v>7.5</v>
+      </c>
+      <c r="D100" s="8">
+        <v>6</v>
+      </c>
+      <c r="G100" s="8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>94</v>
+      </c>
+      <c r="B101" s="8">
+        <v>7</v>
+      </c>
+      <c r="C101" s="8">
+        <v>7.5</v>
+      </c>
+      <c r="D101" s="8">
+        <v>6</v>
+      </c>
+      <c r="G101" s="8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>95</v>
+      </c>
+      <c r="B102" s="8">
+        <v>7</v>
+      </c>
+      <c r="C102" s="8">
+        <v>7</v>
+      </c>
+      <c r="D102" s="8">
+        <v>5</v>
+      </c>
+      <c r="G102" s="8">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>96</v>
+      </c>
+      <c r="B103" s="8">
+        <v>6</v>
+      </c>
+      <c r="C103" s="8">
+        <v>6</v>
+      </c>
+      <c r="D103" s="8">
+        <v>4</v>
+      </c>
+      <c r="G103" s="8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>97</v>
+      </c>
+      <c r="B104" s="8">
+        <v>5</v>
+      </c>
+      <c r="C104" s="8">
+        <v>5</v>
+      </c>
+      <c r="D104" s="8">
+        <v>3.5</v>
+      </c>
+      <c r="E104" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="G104" s="8">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>98</v>
+      </c>
+      <c r="B105" s="8">
+        <v>5</v>
+      </c>
+      <c r="C105" s="8">
+        <v>6</v>
+      </c>
+      <c r="D105" s="8">
+        <v>4</v>
+      </c>
+      <c r="G105" s="8">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>99</v>
+      </c>
+      <c r="B106" s="8">
+        <v>6.5</v>
+      </c>
+      <c r="C106" s="8">
+        <v>7</v>
+      </c>
+      <c r="D106" s="8">
+        <v>5.5</v>
+      </c>
+      <c r="G106" s="8">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>100</v>
+      </c>
+      <c r="B107" s="8">
+        <v>7</v>
+      </c>
+      <c r="C107" s="8">
+        <v>7</v>
+      </c>
+      <c r="D107" s="8">
+        <v>5</v>
+      </c>
+      <c r="E107" t="s">
+        <v>180</v>
+      </c>
+      <c r="G107" s="8">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>101</v>
+      </c>
+      <c r="B108" s="8">
+        <v>5.5</v>
+      </c>
+      <c r="C108" s="8">
+        <v>6</v>
+      </c>
+      <c r="D108" s="8">
+        <v>4</v>
+      </c>
+      <c r="G108" s="8">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>102</v>
+      </c>
+      <c r="B109" s="8">
+        <v>6.5</v>
+      </c>
+      <c r="C109" s="8">
+        <v>7</v>
+      </c>
+      <c r="D109" s="8">
+        <v>6</v>
+      </c>
+      <c r="G109" s="8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>103</v>
+      </c>
+      <c r="B110" s="8">
+        <v>7</v>
+      </c>
+      <c r="C110" s="8">
+        <v>7.5</v>
+      </c>
+      <c r="D110" s="8">
+        <v>6</v>
+      </c>
+      <c r="G110" s="8">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>104</v>
+      </c>
+      <c r="B111" s="8">
+        <v>8.5</v>
+      </c>
+      <c r="C111" s="8">
+        <v>9</v>
+      </c>
+      <c r="D111" s="8">
+        <v>7</v>
+      </c>
+      <c r="E111" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="G111" s="8">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>105</v>
+      </c>
+      <c r="B112" s="8">
+        <v>7.5</v>
+      </c>
+      <c r="C112" s="8">
+        <v>8</v>
+      </c>
+      <c r="D112" s="8">
+        <v>6</v>
+      </c>
+      <c r="G112" s="8">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>106</v>
+      </c>
+      <c r="B113" s="8">
+        <v>7</v>
+      </c>
+      <c r="C113" s="8">
+        <v>7.5</v>
+      </c>
+      <c r="D113" s="8">
+        <v>6</v>
+      </c>
+      <c r="G113" s="8">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>107</v>
+      </c>
+      <c r="B114" s="8">
+        <v>7</v>
+      </c>
+      <c r="C114" s="8">
+        <v>7.5</v>
+      </c>
+      <c r="D114" s="8">
+        <v>6</v>
+      </c>
+      <c r="G114" s="8">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>108</v>
+      </c>
+      <c r="B115" s="8">
+        <v>7</v>
+      </c>
+      <c r="C115" s="8">
+        <v>7</v>
+      </c>
+      <c r="D115" s="8">
+        <v>6</v>
+      </c>
+      <c r="G115" s="8">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>109</v>
+      </c>
+      <c r="B116" s="8">
+        <v>7</v>
+      </c>
+      <c r="C116" s="8">
+        <v>7.5</v>
+      </c>
+      <c r="D116" s="8">
+        <v>6.5</v>
+      </c>
+      <c r="G116" s="8">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>110</v>
+      </c>
+      <c r="B117" s="8">
+        <v>7.5</v>
+      </c>
+      <c r="C117" s="8">
+        <v>8</v>
+      </c>
+      <c r="D117" s="8">
+        <v>6.5</v>
+      </c>
+      <c r="G117" s="8">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>111</v>
+      </c>
+      <c r="B118" s="8">
+        <v>6.5</v>
+      </c>
+      <c r="C118" s="8">
+        <v>7.5</v>
+      </c>
+      <c r="D118" s="8">
+        <v>6</v>
+      </c>
+      <c r="G118" s="8">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>112</v>
+      </c>
+      <c r="B119" s="8">
+        <v>7</v>
+      </c>
+      <c r="C119" s="8">
+        <v>7</v>
+      </c>
+      <c r="D119" s="8">
+        <v>6</v>
+      </c>
+      <c r="G119" s="8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <v>113</v>
+      </c>
+      <c r="B120" s="8">
+        <v>6.5</v>
+      </c>
+      <c r="C120" s="8">
+        <v>7</v>
+      </c>
+      <c r="D120" s="8">
+        <v>6</v>
+      </c>
+      <c r="E120" t="s">
+        <v>181</v>
+      </c>
+      <c r="G120" s="8">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <v>114</v>
+      </c>
+      <c r="B121" s="8">
+        <v>7.5</v>
+      </c>
+      <c r="C121" s="8">
+        <v>8</v>
+      </c>
+      <c r="D121" s="8">
+        <v>6.5</v>
+      </c>
+      <c r="G121" s="8">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <v>115</v>
+      </c>
+      <c r="B122" s="8">
+        <v>6.5</v>
+      </c>
+      <c r="C122" s="8">
+        <v>7</v>
+      </c>
+      <c r="D122" s="8">
+        <v>5.5</v>
+      </c>
+      <c r="G122" s="8">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <v>116</v>
+      </c>
+      <c r="B123" s="8">
+        <v>6.5</v>
+      </c>
+      <c r="C123" s="8">
+        <v>7</v>
+      </c>
+      <c r="D123" s="8">
+        <v>5.5</v>
+      </c>
+      <c r="G123" s="8">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <v>117</v>
+      </c>
+      <c r="B124" s="8">
+        <v>7</v>
+      </c>
+      <c r="C124" s="8">
+        <v>7</v>
+      </c>
+      <c r="D124" s="8">
+        <v>5.5</v>
+      </c>
+      <c r="G124" s="8">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A125">
+        <v>118</v>
+      </c>
+      <c r="B125" s="8">
+        <v>6.5</v>
+      </c>
+      <c r="C125" s="8">
+        <v>7</v>
+      </c>
+      <c r="D125" s="8">
+        <v>5.5</v>
+      </c>
+      <c r="G125" s="8">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A126">
+        <v>119</v>
+      </c>
+      <c r="B126" s="8">
+        <v>7.5</v>
+      </c>
+      <c r="C126" s="8">
+        <v>8</v>
+      </c>
+      <c r="D126" s="8">
+        <v>7</v>
+      </c>
+      <c r="G126" s="8">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <v>120</v>
+      </c>
+      <c r="B127" s="8">
+        <v>6.5</v>
+      </c>
+      <c r="C127" s="8">
+        <v>7.5</v>
+      </c>
+      <c r="D127" s="8">
+        <v>6.5</v>
+      </c>
+      <c r="E127" t="s">
+        <v>182</v>
+      </c>
+      <c r="G127" s="8">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <v>121</v>
+      </c>
+      <c r="B128" s="8">
+        <v>6.5</v>
+      </c>
+      <c r="C128" s="8">
+        <v>7</v>
+      </c>
+      <c r="D128" s="8">
+        <v>5</v>
+      </c>
+      <c r="G128" s="8">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <v>122</v>
+      </c>
+      <c r="B129" s="8">
+        <v>6.5</v>
+      </c>
+      <c r="C129" s="8">
+        <v>7</v>
+      </c>
+      <c r="D129" s="8">
+        <v>5.5</v>
+      </c>
+      <c r="G129" s="8">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A130">
+        <v>123</v>
+      </c>
+      <c r="B130" s="8">
+        <v>6.5</v>
+      </c>
+      <c r="C130" s="8">
+        <v>7</v>
+      </c>
+      <c r="D130" s="8">
+        <v>6</v>
+      </c>
+      <c r="G130" s="8">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A131">
+        <v>124</v>
+      </c>
+      <c r="B131" s="8">
+        <v>7.5</v>
+      </c>
+      <c r="C131" s="8">
+        <v>8</v>
+      </c>
+      <c r="D131" s="8">
+        <v>7</v>
+      </c>
+      <c r="G131" s="8">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A132">
+        <v>125</v>
+      </c>
+      <c r="B132" s="8">
+        <v>6</v>
+      </c>
+      <c r="C132" s="8">
+        <v>7</v>
+      </c>
+      <c r="D132" s="8">
+        <v>5.5</v>
+      </c>
+      <c r="G132" s="8">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A133">
+        <v>126</v>
+      </c>
+      <c r="B133" s="8">
+        <v>7</v>
+      </c>
+      <c r="C133" s="8">
+        <v>8</v>
+      </c>
+      <c r="D133" s="8">
+        <v>6</v>
+      </c>
+      <c r="G133" s="8">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A134">
+        <v>127</v>
+      </c>
+      <c r="B134" s="8">
+        <v>7</v>
+      </c>
+      <c r="C134" s="8">
+        <v>7.5</v>
+      </c>
+      <c r="D134" s="8">
+        <v>6</v>
+      </c>
+      <c r="G134" s="8">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A135">
+        <v>128</v>
+      </c>
+      <c r="B135" s="8">
+        <v>7</v>
+      </c>
+      <c r="C135" s="8">
+        <v>8</v>
+      </c>
+      <c r="D135" s="8">
+        <v>6</v>
+      </c>
+      <c r="G135" s="8">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A136">
+        <v>129</v>
+      </c>
+      <c r="B136" s="8">
+        <v>6</v>
+      </c>
+      <c r="C136" s="8">
+        <v>7</v>
+      </c>
+      <c r="D136" s="8">
+        <v>5.5</v>
+      </c>
+      <c r="G136" s="8">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A137">
+        <v>130</v>
+      </c>
+      <c r="B137" s="8">
+        <v>6</v>
+      </c>
+      <c r="C137" s="8">
+        <v>7</v>
+      </c>
+      <c r="D137" s="8">
+        <v>5.5</v>
+      </c>
+      <c r="G137" s="8">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A138">
+        <v>131</v>
+      </c>
+      <c r="B138" s="8">
+        <v>5.5</v>
+      </c>
+      <c r="C138" s="8">
+        <v>6</v>
+      </c>
+      <c r="D138" s="8">
+        <v>5</v>
+      </c>
+      <c r="G138" s="8">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A139">
+        <v>132</v>
+      </c>
+      <c r="B139" s="8">
+        <v>5.5</v>
+      </c>
+      <c r="C139" s="8">
+        <v>6</v>
+      </c>
+      <c r="D139" s="8">
+        <v>4.5</v>
+      </c>
+      <c r="G139" s="8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A140">
+        <v>133</v>
+      </c>
+      <c r="B140" s="8">
+        <v>6.5</v>
+      </c>
+      <c r="C140" s="8">
+        <v>7</v>
+      </c>
+      <c r="D140" s="8">
+        <v>5.5</v>
+      </c>
+      <c r="G140" s="8">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A141">
+        <v>134</v>
+      </c>
+      <c r="B141" s="8">
+        <v>6</v>
+      </c>
+      <c r="C141" s="8">
+        <v>6.5</v>
+      </c>
+      <c r="D141" s="8">
+        <v>4.5</v>
+      </c>
+      <c r="G141" s="8">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A142">
+        <v>135</v>
+      </c>
+      <c r="B142" s="8">
+        <v>6</v>
+      </c>
+      <c r="C142" s="8">
+        <v>6.5</v>
+      </c>
+      <c r="D142" s="8">
+        <v>5</v>
+      </c>
+      <c r="G142" s="8">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A143">
+        <v>136</v>
+      </c>
+      <c r="B143" s="8">
+        <v>7</v>
+      </c>
+      <c r="C143" s="8">
+        <v>7.5</v>
+      </c>
+      <c r="D143" s="8">
+        <v>6</v>
+      </c>
+      <c r="G143" s="8">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A144">
+        <v>137</v>
+      </c>
+      <c r="B144" s="8">
+        <v>5.5</v>
+      </c>
+      <c r="C144" s="8">
+        <v>6.5</v>
+      </c>
+      <c r="D144" s="8">
+        <v>5.5</v>
+      </c>
+      <c r="G144" s="8">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A145">
+        <v>138</v>
+      </c>
+      <c r="B145" s="8">
+        <v>5.5</v>
+      </c>
+      <c r="C145" s="8">
+        <v>6.5</v>
+      </c>
+      <c r="D145" s="8">
+        <v>5</v>
+      </c>
+      <c r="G145" s="8">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A146">
+        <v>139</v>
+      </c>
+      <c r="B146" s="8">
+        <v>5.5</v>
+      </c>
+      <c r="C146" s="8">
+        <v>6</v>
+      </c>
+      <c r="D146" s="8">
+        <v>5</v>
+      </c>
+      <c r="G146" s="8">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A147">
+        <v>140</v>
+      </c>
+      <c r="B147" s="8">
+        <v>5.5</v>
+      </c>
+      <c r="C147" s="8">
+        <v>6.5</v>
+      </c>
+      <c r="D147" s="8">
+        <v>5</v>
+      </c>
+      <c r="E147" t="s">
+        <v>186</v>
+      </c>
+      <c r="G147" s="8">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A148">
+        <v>141</v>
+      </c>
+      <c r="B148" s="8">
+        <v>6.5</v>
+      </c>
+      <c r="C148" s="8">
+        <v>7.5</v>
+      </c>
+      <c r="D148" s="8">
+        <v>5.5</v>
+      </c>
+      <c r="G148" s="8">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A149">
+        <v>142</v>
+      </c>
+      <c r="B149" s="8">
+        <v>6.5</v>
+      </c>
+      <c r="C149" s="8">
+        <v>7</v>
+      </c>
+      <c r="D149" s="8">
+        <v>5.5</v>
+      </c>
+      <c r="G149" s="8">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A150">
+        <v>143</v>
+      </c>
+      <c r="B150" s="8">
+        <v>5.5</v>
+      </c>
+      <c r="C150" s="8">
+        <v>7</v>
+      </c>
+      <c r="D150" s="8">
+        <v>5.5</v>
+      </c>
+      <c r="G150" s="8">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A151">
+        <v>144</v>
+      </c>
+      <c r="B151" s="8">
+        <v>6.5</v>
+      </c>
+      <c r="C151" s="8">
+        <v>7</v>
+      </c>
+      <c r="D151" s="8">
+        <v>6</v>
+      </c>
+      <c r="G151" s="8">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A152">
+        <v>145</v>
+      </c>
+      <c r="B152" s="8">
+        <v>6</v>
+      </c>
+      <c r="C152" s="8">
+        <v>6.5</v>
+      </c>
+      <c r="D152" s="8">
+        <v>5.5</v>
+      </c>
+      <c r="G152" s="8">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A153">
+        <v>146</v>
+      </c>
+      <c r="B153" s="8">
+        <v>7</v>
+      </c>
+      <c r="C153" s="8">
+        <v>7.5</v>
+      </c>
+      <c r="D153" s="8">
+        <v>6.5</v>
+      </c>
+      <c r="G153" s="8">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A154">
+        <v>147</v>
+      </c>
+      <c r="B154" s="8">
+        <v>6.5</v>
+      </c>
+      <c r="C154" s="8">
+        <v>7</v>
+      </c>
+      <c r="D154" s="8">
+        <v>5.5</v>
+      </c>
+      <c r="G154" s="8">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A155">
+        <v>148</v>
+      </c>
+      <c r="B155" s="8">
+        <v>6</v>
+      </c>
+      <c r="C155" s="8">
+        <v>6.5</v>
+      </c>
+      <c r="D155" s="8">
+        <v>5</v>
+      </c>
+      <c r="G155" s="8">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A156">
+        <v>149</v>
+      </c>
+      <c r="B156" s="8">
+        <v>6.5</v>
+      </c>
+      <c r="C156" s="8">
+        <v>7</v>
+      </c>
+      <c r="D156" s="8">
+        <v>5.5</v>
+      </c>
+      <c r="G156" s="8">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A157">
+        <v>150</v>
+      </c>
+      <c r="B157" s="8">
+        <v>6.5</v>
+      </c>
+      <c r="C157" s="8">
+        <v>7</v>
+      </c>
+      <c r="D157" s="8">
+        <v>5.5</v>
+      </c>
+      <c r="G157" s="8">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A158">
+        <v>151</v>
+      </c>
+      <c r="B158" s="8">
+        <v>7.5</v>
+      </c>
+      <c r="C158" s="8">
+        <v>8</v>
+      </c>
+      <c r="D158" s="8">
+        <v>6</v>
+      </c>
+      <c r="G158" s="8">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A159">
+        <v>152</v>
+      </c>
+      <c r="B159" s="8">
+        <v>7.5</v>
+      </c>
+      <c r="C159" s="8">
+        <v>8</v>
+      </c>
+      <c r="D159" s="8">
+        <v>6</v>
+      </c>
+      <c r="G159" s="8">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A160">
+        <v>153</v>
+      </c>
+      <c r="B160" s="8">
+        <v>7</v>
+      </c>
+      <c r="C160" s="8">
+        <v>7.5</v>
+      </c>
+      <c r="D160" s="8">
+        <v>6</v>
+      </c>
+      <c r="G160" s="8">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A161">
+        <v>154</v>
+      </c>
+      <c r="B161" s="8">
+        <v>8</v>
+      </c>
+      <c r="C161" s="8">
+        <v>9</v>
+      </c>
+      <c r="D161" s="8">
+        <v>7</v>
+      </c>
+      <c r="G161" s="8">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A162">
+        <v>155</v>
+      </c>
+      <c r="B162" s="8">
+        <v>9</v>
+      </c>
+      <c r="C162" s="8">
+        <v>9.5</v>
+      </c>
+      <c r="D162" s="8">
+        <v>7.5</v>
+      </c>
+      <c r="G162" s="8">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A163">
+        <v>156</v>
+      </c>
+      <c r="B163" s="8">
+        <v>8.5</v>
+      </c>
+      <c r="C163" s="8">
+        <v>9</v>
+      </c>
+      <c r="D163" s="8">
+        <v>6.5</v>
+      </c>
+      <c r="G163" s="8">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A164">
+        <v>157</v>
+      </c>
+      <c r="B164" s="8">
+        <v>7.5</v>
+      </c>
+      <c r="C164" s="8">
+        <v>8.5</v>
+      </c>
+      <c r="D164" s="8">
+        <v>7</v>
+      </c>
+      <c r="G164" s="8">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A165">
+        <v>158</v>
+      </c>
+      <c r="B165" s="8">
+        <v>8</v>
+      </c>
+      <c r="C165" s="8">
+        <v>8.5</v>
+      </c>
+      <c r="D165" s="8">
+        <v>7</v>
+      </c>
+      <c r="G165" s="8">
+        <v>76</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
